--- a/ScTypeDB_naru.xlsx
+++ b/ScTypeDB_naru.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Top 30 marker genes" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -263,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -271,84 +271,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4D4D4"/>
-        <bgColor rgb="FFD4D4D4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -561,7 +507,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -572,548 +521,548 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1" t="s">
         <v>80</v>
       </c>
     </row>
